--- a/Motor sequence learning task..xlsx
+++ b/Motor sequence learning task..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashi\Desktop\Lab in Psychology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{167FA986-DBF1-43C3-B7D2-9BC80CADA52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673F0EA-C6C4-4D2E-A354-C8DCAB98EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5958FEE9-3058-4E27-868A-8DE103167210}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>key_resp.corr</t>
   </si>
@@ -52,13 +52,24 @@
   <si>
     <t xml:space="preserve">Mean RT of random trials </t>
   </si>
+  <si>
+    <t>Difference between means =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1941,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367F52A6-8A81-4F47-B5C0-A773A8F070B2}">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,7 +2191,7 @@
         <v>1.0632539999205599</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2193,7 +2205,7 @@
         <v>0.50000060000456803</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>0.486269399989396</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>0.81868220004253001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>0.61155160004273001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>0.70777600002475005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2263,7 +2275,7 @@
         <v>0.64731209992896699</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>0.48954519990365902</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>0.64651800005230997</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2305,7 +2317,7 @@
         <v>0.77801240002736405</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>0.65693130006547995</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>0.79140330001246095</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2346,15 +2358,20 @@
       <c r="F28">
         <v>0.79807569994591099</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M28">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
         <f>AVERAGE(E2:E97)</f>
         <v>0.5876123872300747</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2367,15 +2384,20 @@
       <c r="F29">
         <v>0.52628650004044097</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M29">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <f>AVERAGE(F2:F97)</f>
         <v>0.69826366666529749</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2388,8 +2410,15 @@
       <c r="F30">
         <v>0.66416329995263301</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2402,8 +2431,15 @@
       <c r="F31">
         <v>0.50044699991121799</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2416,8 +2452,20 @@
       <c r="F32">
         <v>0.78449939994607099</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <f>M28-M29</f>
+        <v>-0.11065127943522279</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2430,8 +2478,15 @@
       <c r="F33">
         <v>0.77247620001435202</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2444,8 +2499,15 @@
       <c r="F34">
         <v>0.61555089999455903</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2459,7 +2521,7 @@
         <v>0.78552080004010305</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2473,7 +2535,7 @@
         <v>0.692583799944259</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2487,7 +2549,7 @@
         <v>0.99984589999075901</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2501,7 +2563,7 @@
         <v>0.64050700003281202</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2515,7 +2577,7 @@
         <v>0.88695419998839498</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2529,7 +2591,7 @@
         <v>0.53942749998532202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2543,7 +2605,7 @@
         <v>1.28508300008252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2557,7 +2619,7 @@
         <v>0.53663879993837305</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2571,7 +2633,7 @@
         <v>0.65478690003510498</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2585,7 +2647,7 @@
         <v>1.33677829999942</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2599,7 +2661,7 @@
         <v>0.80880959995556601</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2613,7 +2675,7 @@
         <v>0.59977480000816197</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2627,7 +2689,7 @@
         <v>0.69092960003763404</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
